--- a/data/trans_dic/BARTHEL_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.05465735186989121</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05907543749056167</v>
+        <v>0.05907543749056169</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01390315373052574</v>
+        <v>0.01327743294207183</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01080859992663492</v>
+        <v>0.01093527523283328</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02446212722449296</v>
+        <v>0.02542366427257226</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03462476913782614</v>
+        <v>0.037137865105811</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02420423817330699</v>
+        <v>0.02154230845800092</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01596494758999975</v>
+        <v>0.01622607589706109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0193856818355203</v>
+        <v>0.01886807641921798</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03580530682164281</v>
+        <v>0.0383694588753804</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1653435526513939</v>
+        <v>0.1415949003112369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.218439340273848</v>
+        <v>0.2497076677204092</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1208923639022593</v>
+        <v>0.1341684255646858</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08499728003999479</v>
+        <v>0.08693855997933853</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2275523852611387</v>
+        <v>0.2205486334346294</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2739155564908178</v>
+        <v>0.2669592222864466</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2192071869202061</v>
+        <v>0.2305491183259108</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1247000415524196</v>
+        <v>0.1301381975262067</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1238330226547817</v>
+        <v>0.1337133166685381</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1804828890781519</v>
+        <v>0.1938293511614789</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1318228430946504</v>
+        <v>0.1243820007345519</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08896949542038161</v>
+        <v>0.09118540590594089</v>
       </c>
     </row>
     <row r="7">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03083075894237373</v>
+        <v>0.02047189774886185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0616568677457368</v>
+        <v>0.06556741165873416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03467179074127138</v>
+        <v>0.03642396139205196</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05973466275274472</v>
+        <v>0.05747427314127206</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07564671401827422</v>
+        <v>0.07631627142217731</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06638848478274989</v>
+        <v>0.06971690177578413</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0177972253244069</v>
+        <v>0.01767463349454221</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04408797680079465</v>
+        <v>0.05212729399784147</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08516387335894274</v>
+        <v>0.09042831052273918</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05456920137173916</v>
+        <v>0.05569318233590054</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08492998340445838</v>
+        <v>0.09085876822101406</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2233019497894102</v>
+        <v>0.235801625869182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2360741050547434</v>
+        <v>0.2420899240068955</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1336111889571548</v>
+        <v>0.1288920751581042</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4738483354748477</v>
+        <v>0.489719208871193</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5930019632234514</v>
+        <v>0.5728447858337103</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2028555064977842</v>
+        <v>0.1974742776418529</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1416352834285453</v>
+        <v>0.1367784172595729</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2249507678201123</v>
+        <v>0.22584276630201</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2887309486958019</v>
+        <v>0.2821004531259383</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1269073290416156</v>
+        <v>0.1345047121849061</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.111206122644822</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1542589246477429</v>
+        <v>0.1542589246477428</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0354809310676168</v>
+        <v>0.03640591019575704</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0433399046876201</v>
+        <v>0.0442150346554161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05149896155327472</v>
+        <v>0.05501770838718768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07938003923566168</v>
+        <v>0.0817093515541661</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04793427346823652</v>
+        <v>0.04781775055222755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1148174582704201</v>
+        <v>0.1154391792900558</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05528726277357811</v>
+        <v>0.07347963931661883</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1345138504263403</v>
+        <v>0.1363825386534413</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05764937308303789</v>
+        <v>0.06174279117660771</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08222253985519321</v>
+        <v>0.08269410491456654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06891529017719107</v>
+        <v>0.06985853463136869</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1114847911875552</v>
+        <v>0.1152204285591956</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1569280549485185</v>
+        <v>0.1634995742800911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1591814240420205</v>
+        <v>0.1614303269941293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1507552073694909</v>
+        <v>0.151965723571474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.18417150116505</v>
+        <v>0.1907309238110668</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4071777241778796</v>
+        <v>0.4030036817705081</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3324140085215712</v>
+        <v>0.3499000075362579</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2892307983081436</v>
+        <v>0.3001400170785481</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3104875772983759</v>
+        <v>0.2929866807941292</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1940011705107749</v>
+        <v>0.1868651214256858</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1883273417874953</v>
+        <v>0.1909410725607963</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1655862089290033</v>
+        <v>0.1641432151236666</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2015314834333665</v>
+        <v>0.2029348531368772</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1030340543587874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1756798907730813</v>
+        <v>0.1756798907730812</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.08576191420743587</v>
@@ -1093,7 +1093,7 @@
         <v>0.2095965637962891</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.17145989915582</v>
+        <v>0.1714598991558199</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.08604430049299377</v>
@@ -1105,7 +1105,7 @@
         <v>0.137878981201275</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1742635042368884</v>
+        <v>0.1742635042368885</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05786966223821803</v>
+        <v>0.05731499893058971</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1569048604311171</v>
+        <v>0.1556255440198384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06963759454447103</v>
+        <v>0.06700472530789651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1391718921358884</v>
+        <v>0.1388816579631136</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03797955925498947</v>
+        <v>0.03725240051878445</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1329366195792659</v>
+        <v>0.1274814159558748</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1245230004656449</v>
+        <v>0.1298333618266883</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1261862812079193</v>
+        <v>0.1282443836486433</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06002821858725167</v>
+        <v>0.06249516289382467</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1667118238445099</v>
+        <v>0.1677519964120255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1003833593368374</v>
+        <v>0.09714873129774022</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1442483803977316</v>
+        <v>0.1443992795968489</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1236396527434625</v>
+        <v>0.1251399273343055</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.272379235437293</v>
+        <v>0.2765759711141215</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1463974325680672</v>
+        <v>0.1467650012008508</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2172683563951797</v>
+        <v>0.2199038510943405</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.167952118981035</v>
+        <v>0.1680659703536856</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3477392843933944</v>
+        <v>0.3488611142102295</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3138352594888656</v>
+        <v>0.3244960249966047</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.219640141993518</v>
+        <v>0.2203624417915451</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1180535251602696</v>
+        <v>0.1180341006698458</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2700491527104215</v>
+        <v>0.2665170045859588</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.184860901456412</v>
+        <v>0.1794199483747957</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2067842120002747</v>
+        <v>0.2087252348333996</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1888905703482171</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1327049932305679</v>
+        <v>0.132704993230568</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1916651820955264</v>
@@ -1241,7 +1241,7 @@
         <v>0.208216983936168</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2399961684290444</v>
+        <v>0.2399961684290443</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06409155539308427</v>
+        <v>0.06487949831314553</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09298130248465411</v>
+        <v>0.09269030529312838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1295246755244559</v>
+        <v>0.1358840586498472</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08693343860797409</v>
+        <v>0.08760819411684476</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.119692546051725</v>
+        <v>0.1136549641693151</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2700557306152284</v>
+        <v>0.2707702249234295</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1592501860493329</v>
+        <v>0.1508517611825902</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2483053148793813</v>
+        <v>0.246310590907199</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1129759378829658</v>
+        <v>0.1131971936623145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2225593819897456</v>
+        <v>0.2235532661018279</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1641132582425919</v>
+        <v>0.1584759621128044</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2049751729565635</v>
+        <v>0.2054098030481738</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2417905997369747</v>
+        <v>0.2394641813939463</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2309289790647473</v>
+        <v>0.2407229420739421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2623439865590263</v>
+        <v>0.2630627287370726</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1883048713861414</v>
+        <v>0.1850108666710857</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2788454906660877</v>
+        <v>0.2838013578844104</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4106637962603732</v>
+        <v>0.4157526730398629</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.300487707982807</v>
+        <v>0.2977623522776593</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3335950092895187</v>
+        <v>0.3338483393346734</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.237523774421674</v>
+        <v>0.241801457999599</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3306290656266757</v>
+        <v>0.3344665305353556</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2593994481871743</v>
+        <v>0.2580465758635943</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2734769509901764</v>
+        <v>0.2749110502857747</v>
       </c>
     </row>
     <row r="19">
@@ -1375,7 +1375,7 @@
         <v>0.2356941201645031</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2693873559212557</v>
+        <v>0.2693873559212558</v>
       </c>
     </row>
     <row r="20">
@@ -1392,28 +1392,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09997538552839431</v>
+        <v>0.0979880281018905</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2008705302997102</v>
+        <v>0.2043513030768274</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1895282761943237</v>
+        <v>0.1900489351578991</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2344950446344948</v>
+        <v>0.2303750445013221</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09772531356310503</v>
+        <v>0.09931436847970898</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2059308772900406</v>
+        <v>0.2031381900508458</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1895282761943237</v>
+        <v>0.1900489351578991</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2339689062276215</v>
+        <v>0.2341511170509448</v>
       </c>
     </row>
     <row r="21">
@@ -1427,31 +1427,31 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.7216154690530149</v>
+        <v>0.7167320982215601</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1654747752530189</v>
+        <v>0.1660934306751294</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2880429579159391</v>
+        <v>0.2929855521511333</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2821108061203408</v>
+        <v>0.2849528481210481</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3116891002679133</v>
+        <v>0.3068192174177923</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1623905757000838</v>
+        <v>0.1685621465216044</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2924934371983559</v>
+        <v>0.292488036907686</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2821108061203408</v>
+        <v>0.2849528481210481</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3058650245206748</v>
+        <v>0.306743141660981</v>
       </c>
     </row>
     <row r="22">
@@ -1510,40 +1510,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05850104808347024</v>
+        <v>0.06042028919384602</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09393714285838607</v>
+        <v>0.0950147842748811</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1053995729079032</v>
+        <v>0.106162767574929</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2229840244249458</v>
+        <v>0.2235006051404483</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1849097489754215</v>
+        <v>0.1838822347246032</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2086519346574205</v>
+        <v>0.2093678665428593</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09493382138975867</v>
+        <v>0.09386791041011057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1875798367822574</v>
+        <v>0.1888192083126789</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1567217231164053</v>
+        <v>0.1549760047276939</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1698927762857274</v>
+        <v>0.1690413378722438</v>
       </c>
     </row>
     <row r="24">
@@ -1554,40 +1554,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1064080603523716</v>
+        <v>0.1059901358782502</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1436416754500486</v>
+        <v>0.1455002202359778</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1467607672736566</v>
+        <v>0.148871944097677</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2929376693081154</v>
+        <v>0.2925024090860694</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2563003246353316</v>
+        <v>0.2528472180335997</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.250827591887279</v>
+        <v>0.2516764813932125</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1296260202688158</v>
+        <v>0.1303166297725948</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2353504331479719</v>
+        <v>0.2366657044464279</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1989875382124419</v>
+        <v>0.1975418353773651</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2003655702591841</v>
+        <v>0.1995734694432229</v>
       </c>
     </row>
     <row r="25">
@@ -1860,16 +1860,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>831</v>
+        <v>794</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2945</v>
+        <v>3061</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1881,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2582</v>
+        <v>2769</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2166</v>
+        <v>1928</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2046</v>
+        <v>1991</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6981</v>
+        <v>7481</v>
       </c>
     </row>
     <row r="7">
@@ -1904,40 +1904,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9885</v>
+        <v>8465</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9593</v>
+        <v>10967</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8299</v>
+        <v>9210</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10234</v>
+        <v>10467</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6760</v>
+        <v>6552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6927</v>
+        <v>6751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8086</v>
+        <v>8504</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9298</v>
+        <v>9703</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11082</v>
+        <v>11966</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12491</v>
+        <v>13414</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13912</v>
+        <v>13127</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17345</v>
+        <v>17778</v>
       </c>
     </row>
     <row r="8">
@@ -2043,37 +2043,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1869</v>
+        <v>1241</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3289</v>
+        <v>3498</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3631</v>
+        <v>3814</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3654</v>
+        <v>3837</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3506</v>
+        <v>4146</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6041</v>
+        <v>6414</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8718</v>
+        <v>8897</v>
       </c>
     </row>
     <row r="11">
@@ -2084,40 +2084,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4317</v>
+        <v>4618</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13539</v>
+        <v>14297</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12593</v>
+        <v>12914</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13991</v>
+        <v>13497</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7480</v>
+        <v>7731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10430</v>
+        <v>10075</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11165</v>
+        <v>10869</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9435</v>
+        <v>9112</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17891</v>
+        <v>17962</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20480</v>
+        <v>20010</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>20274</v>
+        <v>21488</v>
       </c>
     </row>
     <row r="12">
@@ -2220,40 +2220,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2546</v>
+        <v>2612</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5142</v>
+        <v>5246</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6193</v>
+        <v>6616</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8928</v>
+        <v>9190</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6271</v>
+        <v>6305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2555</v>
+        <v>3395</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7798</v>
+        <v>7906</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5536</v>
+        <v>5929</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14247</v>
+        <v>14328</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11472</v>
+        <v>11629</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19002</v>
+        <v>19638</v>
       </c>
     </row>
     <row r="15">
@@ -2264,40 +2264,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11260</v>
+        <v>11732</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18887</v>
+        <v>19154</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18130</v>
+        <v>18276</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20714</v>
+        <v>21452</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9884</v>
+        <v>9783</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18155</v>
+        <v>19110</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13365</v>
+        <v>13869</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17999</v>
+        <v>16984</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18630</v>
+        <v>17945</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>32631</v>
+        <v>33084</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27565</v>
+        <v>27325</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34349</v>
+        <v>34588</v>
       </c>
     </row>
     <row r="16">
@@ -2400,40 +2400,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15050</v>
+        <v>14906</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36363</v>
+        <v>36067</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14196</v>
+        <v>13659</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35885</v>
+        <v>35810</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3257</v>
+        <v>3194</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7989</v>
+        <v>7661</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12334</v>
+        <v>12859</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16438</v>
+        <v>16706</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20759</v>
+        <v>21612</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>48655</v>
+        <v>48958</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>30406</v>
+        <v>29427</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>55985</v>
+        <v>56043</v>
       </c>
     </row>
     <row r="19">
@@ -2444,40 +2444,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32155</v>
+        <v>32545</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>63125</v>
+        <v>64097</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29844</v>
+        <v>29919</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>56022</v>
+        <v>56702</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14402</v>
+        <v>14412</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20897</v>
+        <v>20965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31084</v>
+        <v>32140</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28611</v>
+        <v>28706</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>40826</v>
+        <v>40819</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>78813</v>
+        <v>77782</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>55995</v>
+        <v>54347</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>80255</v>
+        <v>81009</v>
       </c>
     </row>
     <row r="20">
@@ -2580,40 +2580,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3555</v>
+        <v>3599</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9549</v>
+        <v>9519</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18810</v>
+        <v>19733</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8762</v>
+        <v>8830</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11520</v>
+        <v>10939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>50878</v>
+        <v>51013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>25408</v>
+        <v>24068</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>54166</v>
+        <v>53731</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17140</v>
+        <v>17174</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>64786</v>
+        <v>65075</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>50017</v>
+        <v>48299</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>65374</v>
+        <v>65513</v>
       </c>
     </row>
     <row r="23">
@@ -2624,40 +2624,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13411</v>
+        <v>13282</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23715</v>
+        <v>24721</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38098</v>
+        <v>38202</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18980</v>
+        <v>18648</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26839</v>
+        <v>27316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>77369</v>
+        <v>78328</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>47943</v>
+        <v>47508</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>72771</v>
+        <v>72827</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36036</v>
+        <v>36685</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>96245</v>
+        <v>97362</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>79057</v>
+        <v>78645</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>87222</v>
+        <v>87679</v>
       </c>
     </row>
     <row r="24">
@@ -2764,28 +2764,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>42497</v>
+        <v>41652</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>79284</v>
+        <v>80658</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>78291</v>
+        <v>78506</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>80508</v>
+        <v>79093</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>41896</v>
+        <v>42578</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>81691</v>
+        <v>80583</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>78291</v>
+        <v>78506</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>81094</v>
+        <v>81157</v>
       </c>
     </row>
     <row r="27">
@@ -2799,31 +2799,31 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>2364</v>
+        <v>2348</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>70338</v>
+        <v>70601</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>113692</v>
+        <v>115643</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>116535</v>
+        <v>117709</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>107010</v>
+        <v>105338</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>69619</v>
+        <v>72265</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>116030</v>
+        <v>116028</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>116535</v>
+        <v>117709</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>106013</v>
+        <v>106317</v>
       </c>
     </row>
     <row r="28">
@@ -2926,40 +2926,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>29341</v>
+        <v>30304</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55548</v>
+        <v>56185</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>73727</v>
+        <v>74261</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>165455</v>
+        <v>165839</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>142818</v>
+        <v>142024</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>183468</v>
+        <v>184097</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>111869</v>
+        <v>110613</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>244162</v>
+        <v>245775</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>213720</v>
+        <v>211340</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>268228</v>
+        <v>266883</v>
       </c>
     </row>
     <row r="31">
@@ -2970,40 +2970,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>53369</v>
+        <v>53159</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>84939</v>
+        <v>86038</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>102660</v>
+        <v>104137</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>217361</v>
+        <v>217038</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>197957</v>
+        <v>195290</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>220553</v>
+        <v>221299</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>152750</v>
+        <v>153564</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>306342</v>
+        <v>308054</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>271358</v>
+        <v>269386</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>316338</v>
+        <v>315088</v>
       </c>
     </row>
     <row r="32">
